--- a/datos_estudiantes_whatsapp.xlsx
+++ b/datos_estudiantes_whatsapp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\send-message\enviar_mensajes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\send-message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CEED50-80B1-4F14-9740-880103040D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97ADBC6-C532-4227-9615-DAC974A1B709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="2115" windowWidth="18930" windowHeight="12210" xr2:uid="{055E7051-EFE9-408A-9BBA-8226B2D593B7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{055E7051-EFE9-408A-9BBA-8226B2D593B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>Nombre</t>
   </si>
@@ -48,13 +48,49 @@
   </si>
   <si>
     <t>Numero_Telefono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDREA </t>
+  </si>
+  <si>
+    <t>BRAYAN</t>
+  </si>
+  <si>
+    <t>SAMUEL</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>SIMON</t>
+  </si>
+  <si>
+    <t>HEIDY</t>
+  </si>
+  <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>OSCAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLOS </t>
+  </si>
+  <si>
+    <t>GESTION DE LA PRODUCCION AGRICOLA</t>
+  </si>
+  <si>
+    <t>COMPROMISO APRENDIZ SENA, TRATAMIENTO DE DATOS MENOR EDAD(EN CASO DE SER MENOR DE EDAD), DOCUMENTO VIGENTE, TITULO BACHILLER O ACTA DE GRADO, RESULTADOS PRUEBAS ICFES DONDE SE PUEDAN VISUALIZAR SUS DATOS PERSONALES, FOSYGA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,21 +104,10 @@
       <name val="Arial Unicode MS"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF434343"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF434343"/>
-      <name val="Aptos"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -93,123 +118,58 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8F9FA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF34A853"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF34A853"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF442F65"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -227,61 +187,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,17 +601,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE370CBF-4FD9-48DC-9B6D-84DD2AAECD39}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="70.5703125" customWidth="1"/>
     <col min="3" max="3" width="33.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -644,99 +630,557 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1">
-      <c r="A2" s="18"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="18"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="18"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="16"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="17"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="2"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="2"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="2"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="2"/>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="2"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="2"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="11">
+        <v>3107871085</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="25.5">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="12">
+        <v>3213045088</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="25.5">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="12">
+        <v>3142169438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="25.5">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="12">
+        <v>3138316625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="25.5">
+      <c r="A6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="12">
+        <v>3154874898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="25.5">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="12">
+        <v>3224850147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="25.5">
+      <c r="A8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="13">
+        <v>3168325022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="25.5">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="13">
+        <v>3202433840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="25.5">
+      <c r="A10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="10">
+        <v>3107788344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="25.5">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="13">
+        <v>3114612313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="7"/>
-      <c r="B13" s="2"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A14" s="9"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3"/>
       <c r="B14" s="2"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A15" s="13"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3"/>
       <c r="B15" s="2"/>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A16" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3"/>
       <c r="B16" s="2"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A17" s="14"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3"/>
       <c r="B17" s="2"/>
-      <c r="D17" s="15"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3"/>
       <c r="B18" s="2"/>
-      <c r="D18" s="3"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3"/>
       <c r="B19" s="2"/>
-      <c r="D19" s="3"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="7"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="7"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="7"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="7"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="7"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="7"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="7"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="7"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="7"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="7"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="7"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="7"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="7"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="7"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="8"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="8"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="8"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="8"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="8"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="8"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="8"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="8"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="8"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="8"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="8"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="8"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="8"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="8"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="8"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="8"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="8"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="8"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="7"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="7"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="7"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="7"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="7"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="7"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="7"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="7"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="7"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="7"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="7"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="7"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="7"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="7"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="7"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="7"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="7"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="7"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="7"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="7"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="7"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="7"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="7"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="7"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="7"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="7"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="9"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="7"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="7"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="7"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="7"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="7"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="7"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="7"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="7"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="7"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="7"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="7"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="7"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="7"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="7"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="7"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datos_estudiantes_whatsapp.xlsx
+++ b/datos_estudiantes_whatsapp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\send-message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97ADBC6-C532-4227-9615-DAC974A1B709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0E13C7-5BB8-4F57-AD69-BC83FE5362CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{055E7051-EFE9-408A-9BBA-8226B2D593B7}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="23385" windowHeight="12210" xr2:uid="{055E7051-EFE9-408A-9BBA-8226B2D593B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Nombre</t>
   </si>
@@ -50,47 +50,23 @@
     <t>Numero_Telefono</t>
   </si>
   <si>
-    <t xml:space="preserve">ANDREA </t>
+    <t xml:space="preserve">ANALISIS Y DESARROLLO DE SOFTWARE </t>
   </si>
   <si>
-    <t>BRAYAN</t>
-  </si>
-  <si>
-    <t>SAMUEL</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>JOSE</t>
-  </si>
-  <si>
-    <t>SIMON</t>
-  </si>
-  <si>
-    <t>HEIDY</t>
-  </si>
-  <si>
-    <t>ANDRES</t>
-  </si>
-  <si>
-    <t>OSCAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARLOS </t>
-  </si>
-  <si>
-    <t>GESTION DE LA PRODUCCION AGRICOLA</t>
+    <t>marlon</t>
   </si>
   <si>
     <t>COMPROMISO APRENDIZ SENA, TRATAMIENTO DE DATOS MENOR EDAD(EN CASO DE SER MENOR DE EDAD), DOCUMENTO VIGENTE, TITULO BACHILLER O ACTA DE GRADO, RESULTADOS PRUEBAS ICFES DONDE SE PUEDAN VISUALIZAR SUS DATOS PERSONALES, FOSYGA</t>
+  </si>
+  <si>
+    <t>alimaña</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +130,12 @@
       <color rgb="FF000000"/>
       <name val="Aptos"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -604,7 +586,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -631,143 +613,79 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1">
       <c r="A2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>15</v>
+      <c r="D2" s="11">
+        <v>3209455659</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="11">
-        <v>3107871085</v>
-      </c>
     </row>
     <row r="3" spans="1:4" ht="25.5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D3" s="12">
-        <v>3213045088</v>
+        <v>3138409787</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="25.5">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="12">
-        <v>3142169438</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="25.5">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="12">
-        <v>3138316625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="25.5">
-      <c r="A6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="12">
-        <v>3154874898</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="25.5">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="12">
-        <v>3224850147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="25.5">
-      <c r="A8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="13">
-        <v>3168325022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="25.5">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="13">
-        <v>3202433840</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="25.5">
-      <c r="A10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="10">
-        <v>3107788344</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="25.5">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="13">
-        <v>3114612313</v>
-      </c>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="15"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="15"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="15"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3"/>
@@ -1183,6 +1101,7 @@
       <c r="D80" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
